--- a/TCC/Experimentos2/gruposInfo.xlsx
+++ b/TCC/Experimentos2/gruposInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="baseOriginal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>Número de pull requests</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1103,577 @@
       <c r="G22" s="13">
         <f>E22/C22</f>
         <v>0.21457357363500604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1093</v>
+      </c>
+      <c r="D27" s="2">
+        <v>958</v>
+      </c>
+      <c r="E27" s="6">
+        <f>C27-D27</f>
+        <v>135</v>
+      </c>
+      <c r="F27" s="10">
+        <f>D27/C27</f>
+        <v>0.87648673376029274</v>
+      </c>
+      <c r="G27" s="11">
+        <f>E27/C27</f>
+        <v>0.12351326623970722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1833</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1673</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:E46" si="3">C28-D28</f>
+        <v>160</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" ref="F28:F46" si="4">D28/C28</f>
+        <v>0.91271140207310419</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" ref="G28:G46" si="5">E28/C28</f>
+        <v>8.7288597926895806E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2028</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1008</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="4"/>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="5"/>
+        <v>0.50295857988165682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1194</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1054</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="F30" s="10">
+        <f>D30/C30</f>
+        <v>0.88274706867671693</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="5"/>
+        <v>0.11725293132328309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1743</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" ref="F31:F47" si="6">D31/C31</f>
+        <v>0.87852822580645162</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="5"/>
+        <v>0.12147177419354839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1299</v>
+      </c>
+      <c r="D32" s="2">
+        <v>747</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="3"/>
+        <v>552</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="6"/>
+        <v>0.57505773672055427</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.42494226327944573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2851</v>
+      </c>
+      <c r="D33" s="2">
+        <v>951</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="6"/>
+        <v>0.33356716941424064</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="5"/>
+        <v>0.66643283058575942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1610</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1213</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="6"/>
+        <v>0.75341614906832299</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24658385093167701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3565</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3180</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="6"/>
+        <v>0.89200561009817669</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="5"/>
+        <v>0.10799438990182328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2403</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2262</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="6"/>
+        <v>0.94132334581772781</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="5"/>
+        <v>5.8676654182272157E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10155</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9521</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="3"/>
+        <v>634</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="6"/>
+        <v>0.93756770064007877</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="5"/>
+        <v>6.2432299359921221E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3213</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1026</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="3"/>
+        <v>2187</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="6"/>
+        <v>0.31932773109243695</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="5"/>
+        <v>0.68067226890756305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1026</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="6"/>
+        <v>0.77317256970610404</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="5"/>
+        <v>0.22682743029389602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2612</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2002</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="F40" s="10">
+        <f>D40/C40</f>
+        <v>0.7664624808575804</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="5"/>
+        <v>0.2335375191424196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5342</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4605</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="F41" s="10">
+        <f>D41/C41</f>
+        <v>0.86203669037813557</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="5"/>
+        <v>0.13796330962186448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1293</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1091</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" ref="F42:F47" si="7">D42/C42</f>
+        <v>0.84377416860015464</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="5"/>
+        <v>0.15622583139984533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1622</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="3"/>
+        <v>373</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="7"/>
+        <v>0.77003699136868065</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="5"/>
+        <v>0.22996300863131935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1360</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1184</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="7"/>
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="5"/>
+        <v>0.12941176470588237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D45" s="2">
+        <v>913</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="7"/>
+        <v>0.86952380952380948</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="5"/>
+        <v>0.13047619047619047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1049</v>
+      </c>
+      <c r="D46" s="2">
+        <v>988</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="7"/>
+        <v>0.94184938036224974</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="5"/>
+        <v>5.8150619637750235E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3">
+        <f>AVERAGE(C27:C46)</f>
+        <v>2444.15</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" ref="D47:G47" si="8">AVERAGE(D27:D46)</f>
+        <v>1919.7</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="8"/>
+        <v>524.45000000000005</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="8"/>
+        <v>0.77486123096886383</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="8"/>
+        <v>0.22513876903113608</v>
       </c>
     </row>
   </sheetData>
